--- a/第4章excel/课堂文件-公式和函数.xlsx
+++ b/第4章excel/课堂文件-公式和函数.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="136">
   <si>
     <t>编号</t>
   </si>
@@ -480,6 +480,22 @@
   </si>
   <si>
     <t>f</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -727,6 +743,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -737,9 +756,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4551,7 +4567,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="28">
+      <c r="A2" s="29">
         <v>43784</v>
       </c>
       <c r="B2" s="20" t="s">
@@ -4566,7 +4582,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="28"/>
+      <c r="A3" s="29"/>
       <c r="B3" s="20" t="s">
         <v>90</v>
       </c>
@@ -4579,7 +4595,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="28"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="20" t="s">
         <v>95</v>
       </c>
@@ -4592,7 +4608,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="29">
+      <c r="A5" s="30">
         <v>43785</v>
       </c>
       <c r="B5" s="21" t="s">
@@ -4607,7 +4623,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="30"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="22" t="s">
         <v>91</v>
       </c>
@@ -4620,7 +4636,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="31"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="23" t="s">
         <v>92</v>
       </c>
@@ -4632,7 +4648,7 @@
       <c r="F7" s="20"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="28">
+      <c r="A8" s="29">
         <v>43786</v>
       </c>
       <c r="B8" s="20" t="s">
@@ -4646,7 +4662,7 @@
       <c r="F8" s="20"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="28"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="20" t="s">
         <v>89</v>
       </c>
@@ -4658,7 +4674,7 @@
       <c r="F9" s="20"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="28"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="20" t="s">
         <v>93</v>
       </c>
@@ -4683,10 +4699,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4696,7 +4712,7 @@
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" s="24" t="s">
         <v>98</v>
       </c>
@@ -4712,10 +4728,10 @@
       <c r="G1" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="K1" s="32">
+      <c r="K1" s="28">
         <v>100</v>
       </c>
-      <c r="L1" s="32">
+      <c r="L1" s="28">
         <v>1</v>
       </c>
       <c r="N1" t="s">
@@ -4724,8 +4740,11 @@
       <c r="O1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="Q1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="25" t="s">
         <v>100</v>
       </c>
@@ -4746,10 +4765,10 @@
         <f>IFERROR(IF(VLOOKUP(E2,$A$2:$B$20,2,0)&lt;&gt;F2,"金额有误",""),"订单有误")</f>
         <v/>
       </c>
-      <c r="K2" s="32">
+      <c r="K2" s="28">
         <v>200</v>
       </c>
-      <c r="L2" s="32">
+      <c r="L2" s="28">
         <v>2</v>
       </c>
       <c r="N2" t="s">
@@ -4758,8 +4777,11 @@
       <c r="O2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="Q2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="25" t="s">
         <v>101</v>
       </c>
@@ -4776,14 +4798,10 @@
         <f t="shared" ref="G3:G11" si="0">IFERROR(IF(VLOOKUP(E3,$A$2:$B$21,2,FALSE)&lt;&gt;F3,"金额有误",""),"订单号有误")</f>
         <v>金额有误</v>
       </c>
-      <c r="H3" t="str">
-        <f t="shared" ref="H3:H11" si="1">IFERROR(IF(VLOOKUP(E3,$A$2:$B$20,2,0)&lt;&gt;F3,"金额有误",""),"订单有误")</f>
-        <v>金额有误</v>
-      </c>
-      <c r="K3" s="32">
+      <c r="K3" s="28">
         <v>300</v>
       </c>
-      <c r="L3" s="32">
+      <c r="L3" s="28">
         <v>3</v>
       </c>
       <c r="N3" t="s">
@@ -4792,8 +4810,11 @@
       <c r="O3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="Q3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" s="25" t="s">
         <v>102</v>
       </c>
@@ -4810,14 +4831,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K4" s="32">
+      <c r="K4" s="28">
         <v>400</v>
       </c>
-      <c r="L4" s="32">
+      <c r="L4" s="28">
         <v>4</v>
       </c>
       <c r="N4" t="s">
@@ -4826,8 +4843,11 @@
       <c r="O4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="Q4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="25" t="s">
         <v>103</v>
       </c>
@@ -4844,14 +4864,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K5" s="32">
+      <c r="K5" s="28">
         <v>500</v>
       </c>
-      <c r="L5" s="32">
+      <c r="L5" s="28">
         <v>5</v>
       </c>
       <c r="N5" t="s">
@@ -4861,7 +4877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="25" t="s">
         <v>104</v>
       </c>
@@ -4878,14 +4894,10 @@
         <f t="shared" si="0"/>
         <v>订单号有误</v>
       </c>
-      <c r="H6" t="str">
-        <f t="shared" si="1"/>
-        <v>订单有误</v>
-      </c>
-      <c r="K6" s="32">
+      <c r="K6" s="28">
         <v>600</v>
       </c>
-      <c r="L6" s="32">
+      <c r="L6" s="28">
         <v>6</v>
       </c>
       <c r="N6" t="s">
@@ -4895,7 +4907,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" s="25" t="s">
         <v>105</v>
       </c>
@@ -4912,14 +4924,10 @@
         <f t="shared" si="0"/>
         <v>金额有误</v>
       </c>
-      <c r="H7" t="str">
-        <f t="shared" si="1"/>
-        <v>金额有误</v>
-      </c>
-      <c r="K7" s="32">
+      <c r="K7" s="28">
         <v>700</v>
       </c>
-      <c r="L7" s="32">
+      <c r="L7" s="28">
         <v>7</v>
       </c>
       <c r="N7" t="s">
@@ -4929,7 +4937,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="25" t="s">
         <v>106</v>
       </c>
@@ -4946,14 +4954,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K8" s="32">
+      <c r="K8" s="28">
         <v>800</v>
       </c>
-      <c r="L8" s="32">
+      <c r="L8" s="28">
         <v>8</v>
       </c>
       <c r="N8" t="s">
@@ -4963,7 +4967,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="25" t="s">
         <v>107</v>
       </c>
@@ -4980,18 +4984,14 @@
         <f t="shared" si="0"/>
         <v>订单号有误</v>
       </c>
-      <c r="H9" t="str">
-        <f t="shared" si="1"/>
-        <v>订单有误</v>
-      </c>
-      <c r="K9" s="32">
+      <c r="K9" s="28">
         <v>900</v>
       </c>
-      <c r="L9" s="32">
+      <c r="L9" s="28">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" s="25" t="s">
         <v>108</v>
       </c>
@@ -5009,17 +5009,17 @@
         <v/>
       </c>
       <c r="H10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H3:H11" si="1">IFERROR(IF(VLOOKUP(E10,$A$2:$B$20,2,0)&lt;&gt;F10,"金额有误",""),"订单有误")</f>
         <v/>
       </c>
-      <c r="K10" s="32">
+      <c r="K10" s="28">
         <v>1000</v>
       </c>
-      <c r="L10" s="32">
+      <c r="L10" s="28">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" s="25" t="s">
         <v>109</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" s="25" t="s">
         <v>110</v>
       </c>
@@ -5049,7 +5049,7 @@
         <v>2812</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="25" t="s">
         <v>111</v>
       </c>
@@ -5057,7 +5057,7 @@
         <v>15327</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" s="25" t="s">
         <v>112</v>
       </c>
@@ -5065,7 +5065,7 @@
         <v>6425</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" s="25" t="s">
         <v>113</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>5583</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" s="25" t="s">
         <v>114</v>
       </c>
